--- a/设计模式总结.xlsx
+++ b/设计模式总结.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingli/books/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A8E7A5-8F89-EE4A-81D7-65715A6E4CD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D52A5A-F49E-C842-B426-31E0A4572521}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40000" yWindow="980" windowWidth="28240" windowHeight="17440" xr2:uid="{5F76D228-31B9-884C-ADAF-0035529C0503}"/>
+    <workbookView xWindow="40000" yWindow="980" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{5F76D228-31B9-884C-ADAF-0035529C0503}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="117">
   <si>
     <t>抽象工厂</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,14 +142,6 @@
   </si>
   <si>
     <t>中心化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分离变化和不变，及逻辑分层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -161,21 +155,353 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">分离职责，类嵌套
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>部件可插拔
 通过多态，实现部件的扩展。依赖倒置实现部件替换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分离数据与行为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统一外观</t>
+    <t>工厂和产品，产品可扩展、工厂也可扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两套或多套继承体系，相互关联，又能分别扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽象工厂和各个产品的继承体系，可以独立发展。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>director维护的Builder对象，可以被替换，以实现不同产品的组装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Director构造产品的方法是一个模版。按顺序调用Builder的build part方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造对象的流程不变，每一步构造变化。
+不变的在Director实现，变化的在Builder实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以某个对象为模板进行克隆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适配器类是客户端类和被适配类之间的缓冲。它负责适配接口。这样两端的类都不需要改变就可以通过适配器调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏机和游戏卡，可以独立发展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏机可以插拔游戏卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离变化快的游戏部分为游戏卡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leaf和composite节点同一个父类，拥有同样的行为。
+Leaf和composite节点代表的对象需要高度抽象，统一行为。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点嵌套，递归调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装饰对象可以嵌套，组合出千变万化的功能，通过装饰方法递归调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">去中心化，分离职责，对象嵌套（特殊的插拔，嵌套插拔）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观类是子系统的外观，对外统一提供调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有对子系统的调用都要通过外观类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用享元对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理类使用真实类实现业务，并在此基础上可以添加自己的业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职责链上的handler可以嵌套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将行为接口抽象为executeComand。执行的操作抽象为Commend类，它执行的接口也被统一抽象为execute方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过Invoker屏蔽了Client对Operator的直接调用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法树的节点表达式对象嵌套。递归调用解析语法树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一外观（迪米特法则）增加一层间接性。消除网状依赖关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中介者是同事类协作的中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看作子系统内部的外观，避免子系统内部的网状依赖。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离对象状态相关的数据为memento类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一观察者更新自身状态的行为为update(Subject subject).必要的数据需要通过subject作为载体。主题类对外统一提供notify方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过主题类作为事件的载体，避免客户端状态变化，对多个感兴趣类的直接调用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Context可以插拔不同状态对象。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将Context的职责，细化交给状态类去实现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加Context类负责使用哪种策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Context可以插拔不同的策略对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略类统一对外提供调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模版方法提供方法的模版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模版不变父类实现，细节变化，子类实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于Element所有的操作都抽象Visitor的visit方法，过高的抽象层次，需要将Element暴露给Visitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element复杂数据维护
+Visitor负责作用于数据的操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆分类
+分离变化和不变，及逻辑分层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element和visitor可以独立发展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个家具厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个家具厂生产一个家具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑工地，总监说，按照我的流程干活，干的不好我就给你换掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养殖场，复制绵羊，这办法赚钱快！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个人要出差，从商店出来，明天出差终于买到万能插座了！放大万能插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从服装店出来，我这身打扮很潮吧？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345，投诉热线，有事都找我。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公室，层层审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外办公室，传递命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭馆点菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁安检</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打游戏，要存档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立体停车楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自助餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老头下棋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过街天桥，有中心的那种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城管，网约车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中介公司，你放心把房子托管给我们，我们肯定给你打理的好好的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河边钓鱼，鱼钩鱼竿随便换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音像店，组合音响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养殖场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市政府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店，人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑，内部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区，内部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小店，门口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公楼，内部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过街天桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路边，公园门口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公园门口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中年危机，什么是中年危机，就是你又作为爸爸，又作为儿子，又作为丈夫，亚历山大啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +526,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +536,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,15 +565,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -560,256 +892,770 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966D59A6-765F-7348-99B9-D67B56086443}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="12" max="12" width="28.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="10" max="10" width="24.83203125" customWidth="1"/>
+    <col min="11" max="11" width="28.83203125" customWidth="1"/>
+    <col min="12" max="12" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="102">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:12" ht="68">
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="34">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="34">
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="68">
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="1"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="1"/>
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="68">
+      <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
-        <v>30</v>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="1"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="K8" t="s">
+        <v>42</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="102">
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="34">
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="34">
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="K11" t="s">
-        <v>30</v>
+      <c r="I11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="1"/>
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="H12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1"/>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="51">
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>11</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="85">
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" ht="34">
+      <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
+      <c r="E16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="1"/>
+      <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" ht="51">
+      <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="J18" t="s">
-        <v>30</v>
-      </c>
+      <c r="I18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="1"/>
+      <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="G19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="102">
+      <c r="A20" s="3"/>
       <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" ht="34">
+      <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="34">
+      <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1"/>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="34">
+      <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="I23" t="s">
-        <v>30</v>
-      </c>
-      <c r="L23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="85">
+      <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>22</v>
       </c>
+      <c r="C24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A14:A24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A32A986-3F69-7044-83D0-6F4C5517917F}">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" t="s">
-        <v>30</v>
+        <v>103</v>
+      </c>
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
